--- a/data/codebook-main-reproducibility.xlsx
+++ b/data/codebook-main-reproducibility.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ187"/>
+  <dimension ref="A1:AJ183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5091,7 +5091,7 @@
         </is>
       </c>
       <c r="AJ34">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="35">
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="AJ35">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="36">
@@ -5282,6 +5282,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
           <t>"With our current model specification and sample size, we had 73% power to detect a small coupling effect (r = .1, as defined by Gignac &amp; Szodorai, 2016) but effectively 100% power to detect intermediate (r = .2) and large (r = .3) effects."</t>
@@ -5341,7 +5346,7 @@
         </is>
       </c>
       <c r="AJ36">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="37">
@@ -5407,6 +5412,11 @@
           <t>2.0</t>
         </is>
       </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
           <t>"The sample size was determined a pri-ori to maximize power and not on the basis of any power analysis because the expected effect size was unknown."</t>
@@ -5461,7 +5471,7 @@
         </is>
       </c>
       <c r="AJ37">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="38">
@@ -5621,7 +5631,7 @@
         </is>
       </c>
       <c r="AJ38">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="39">
@@ -5781,7 +5791,7 @@
         </is>
       </c>
       <c r="AJ39">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="40">
@@ -5941,7 +5951,7 @@
         </is>
       </c>
       <c r="AJ40">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="41">
@@ -6101,7 +6111,7 @@
         </is>
       </c>
       <c r="AJ41">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="42">
@@ -6261,7 +6271,7 @@
         </is>
       </c>
       <c r="AJ42">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="43">
@@ -13120,7 +13130,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>With/out depression distress</t>
+          <t>With/out psychological distress</t>
         </is>
       </c>
       <c r="K92">
@@ -20916,14 +20926,14 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0209469</t>
+          <t>https://doi.org/10.1371/journal.pone.0222992</t>
         </is>
       </c>
       <c r="D154">
@@ -20931,7 +20941,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Griffioen</t>
+          <t>goswami</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -20946,11 +20956,11 @@
         <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>6-weeks trend water use</t>
+          <t>male and female</t>
         </is>
       </c>
       <c r="K154">
@@ -20961,79 +20971,99 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Behaviour identification form</t>
+          <t>WHODAS (disability) - quantile 2</t>
         </is>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>197.0</t>
+          <t>931.0</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>416.0</t>
         </is>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>515.0</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>0.766</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>0.812</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AE154">
         <v>0</v>
       </c>
+      <c r="AF154" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG154" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH154" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AI154" t="inlineStr">
         <is>
-          <t>Other measures were used but none of them has been reported for comparison, therefore only the BFI has been coded.</t>
+          <t>they measure this scale, then divide it into quartiles</t>
         </is>
       </c>
       <c r="AJ154">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0209469</t>
+          <t>https://doi.org/10.1371/journal.pone.0222992</t>
         </is>
       </c>
       <c r="D155">
@@ -21041,7 +21071,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Griffioen</t>
+          <t>goswami</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -21056,11 +21086,11 @@
         <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>4-weeks trend water use</t>
+          <t>age (60-64 and 65-69 and 770-74 and 75 and above)</t>
         </is>
       </c>
       <c r="K155">
@@ -21071,7 +21101,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Behaviour identification form</t>
+          <t>WHODAS (disability) - quantile 2</t>
         </is>
       </c>
       <c r="N155">
@@ -21079,71 +21109,111 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>197.0</t>
+          <t>931.0</t>
         </is>
       </c>
       <c r="T155" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>348.0</t>
         </is>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>152.0</t>
         </is>
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>0.766</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>0.812</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB155" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC155" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="AE155">
         <v>0</v>
       </c>
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG155" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH155" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AI155" t="inlineStr">
         <is>
-          <t>Other measures were used but none of them has been reported for comparison, therefore only the BFI has been coded.</t>
+          <t>they measure this scale, then divide it into quartiles</t>
         </is>
       </c>
       <c r="AJ155">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0209469</t>
+          <t>https://doi.org/10.1371/journal.pone.0222992</t>
         </is>
       </c>
       <c r="D156">
@@ -21151,7 +21221,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Griffioen</t>
+          <t>goswami</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -21170,7 +21240,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>4-weeks trend water use-Bioshperic values</t>
+          <t>educational level (illertate and primary and middle and high and secondary and above)</t>
         </is>
       </c>
       <c r="K156">
@@ -21181,7 +21251,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Behaviour identification form</t>
+          <t>WHODAS (disability) - quantile 2</t>
         </is>
       </c>
       <c r="N156">
@@ -21189,71 +21259,121 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>197.0</t>
+          <t>931.0</t>
         </is>
       </c>
       <c r="T156" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>557.0</t>
         </is>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>0.766</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>0.812</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AB156" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC156" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AD156" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="AE156">
         <v>0</v>
       </c>
+      <c r="AF156" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG156" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH156" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AI156" t="inlineStr">
         <is>
-          <t>Other measures were used but none of them has been reported for comparison, therefore only the BFI has been coded.</t>
+          <t>they measure this scale, then divide it into quartiles</t>
         </is>
       </c>
       <c r="AJ156">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0209469</t>
+          <t>https://doi.org/10.1371/journal.pone.0222992</t>
         </is>
       </c>
       <c r="D157">
@@ -21261,7 +21381,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Griffioen</t>
+          <t>goswami</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -21276,11 +21396,11 @@
         <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>6-weeks trend water use - spillover behaviour</t>
+          <t>type of family (single member/nuclear family and extended family)</t>
         </is>
       </c>
       <c r="K157">
@@ -21291,7 +21411,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Behaviour identification form</t>
+          <t>WHODAS (disability) - quantile 2</t>
         </is>
       </c>
       <c r="N157">
@@ -21299,59 +21419,79 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>NA</t>
         </is>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>197.0</t>
+          <t>931.0</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>837.0</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>0.766</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>0.812</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AE157">
         <v>0</v>
       </c>
+      <c r="AF157" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AG157" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AH157" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AI157" t="inlineStr">
         <is>
-          <t>Other measures were used but none of them has been reported for comparison, therefore only the BFI has been coded.</t>
+          <t>they measure this scale, then divide it into quartiles</t>
         </is>
       </c>
       <c r="AJ157">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="158">
@@ -21390,7 +21530,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>male and female</t>
+          <t>marital status (never married and currently married)</t>
         </is>
       </c>
       <c r="K158">
@@ -21434,12 +21574,12 @@
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>416.0</t>
+          <t>360.0</t>
         </is>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>515.0</t>
+          <t>571.0</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
@@ -21481,7 +21621,7 @@
         </is>
       </c>
       <c r="AJ158">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="159">
@@ -21520,7 +21660,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>age (60-64 and 65-69 and 770-74 and 75 and above)</t>
+          <t>past occuption (home maker and govt/private services and business and labourer/others)</t>
         </is>
       </c>
       <c r="K159">
@@ -21564,22 +21704,22 @@
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>348.0</t>
+          <t>276.0</t>
         </is>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>242.0</t>
+          <t>309.0</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>189.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="W159" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>201.0</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
@@ -21631,7 +21771,7 @@
         </is>
       </c>
       <c r="AJ159">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="160">
@@ -21666,11 +21806,11 @@
         <v>1</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>educational level (illertate and primary and middle and high and secondary and above)</t>
+          <t>economical dependency status (dependent and partially dependent and independent)</t>
         </is>
       </c>
       <c r="K160">
@@ -21714,27 +21854,17 @@
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>557.0</t>
+          <t>232.0</t>
         </is>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>448.0</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>88.0</t>
-        </is>
-      </c>
-      <c r="W160" t="inlineStr">
-        <is>
-          <t>85.0</t>
-        </is>
-      </c>
-      <c r="X160" t="inlineStr">
-        <is>
-          <t>49.0</t>
+          <t>251.0</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
@@ -21757,16 +21887,6 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AC160" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AD160" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AE160">
         <v>0</v>
       </c>
@@ -21791,7 +21911,7 @@
         </is>
       </c>
       <c r="AJ160">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="161">
@@ -21830,7 +21950,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>type of family (single member/nuclear family and extended family)</t>
+          <t>living children (no children and either son/daughter only and both son/daughter)</t>
         </is>
       </c>
       <c r="K161">
@@ -21874,12 +21994,17 @@
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>837.0</t>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>737.0</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr">
@@ -21897,6 +22022,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AB161" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AE161">
         <v>0</v>
       </c>
@@ -21921,7 +22051,7 @@
         </is>
       </c>
       <c r="AJ161">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="162">
@@ -21960,7 +22090,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>marital status (never married and currently married)</t>
+          <t>living status (living alone and living with spouse only and living with spouse and children or with son's family and living with daughter's family or distant relative or others)</t>
         </is>
       </c>
       <c r="K162">
@@ -22004,12 +22134,22 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>360.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>571.0</t>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>773.0</t>
+        </is>
+      </c>
+      <c r="W162" t="inlineStr">
+        <is>
+          <t>53.0</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
@@ -22027,6 +22167,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AB162" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC162" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AE162">
         <v>0</v>
       </c>
@@ -22051,7 +22201,7 @@
         </is>
       </c>
       <c r="AJ162">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="163">
@@ -22090,7 +22240,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>past occuption (home maker and govt/private services and business and labourer/others)</t>
+          <t>ownership of house (own house and rented house)</t>
         </is>
       </c>
       <c r="K163">
@@ -22134,22 +22284,12 @@
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>276.0</t>
+          <t>882.0</t>
         </is>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>309.0</t>
-        </is>
-      </c>
-      <c r="V163" t="inlineStr">
-        <is>
-          <t>145.0</t>
-        </is>
-      </c>
-      <c r="W163" t="inlineStr">
-        <is>
-          <t>201.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y163" t="inlineStr">
@@ -22167,16 +22307,6 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB163" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AC163" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AE163">
         <v>0</v>
       </c>
@@ -22201,7 +22331,7 @@
         </is>
       </c>
       <c r="AJ163">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="164">
@@ -22240,7 +22370,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>economical dependency status (dependent and partially dependent and independent)</t>
+          <t>male and female</t>
         </is>
       </c>
       <c r="K164">
@@ -22251,7 +22381,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>WHODAS (disability) - quantile 2</t>
+          <t>WHODAS (disability) - quantile 3</t>
         </is>
       </c>
       <c r="N164">
@@ -22284,17 +22414,12 @@
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>232.0</t>
+          <t>416.0</t>
         </is>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>448.0</t>
-        </is>
-      </c>
-      <c r="V164" t="inlineStr">
-        <is>
-          <t>251.0</t>
+          <t>515.0</t>
         </is>
       </c>
       <c r="Y164" t="inlineStr">
@@ -22312,11 +22437,6 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB164" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AE164">
         <v>0</v>
       </c>
@@ -22341,7 +22461,7 @@
         </is>
       </c>
       <c r="AJ164">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="165">
@@ -22380,7 +22500,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>living children (no children and either son/daughter only and both son/daughter)</t>
+          <t>age (60-64 and 65-69 and 770-74 and 75 and above)</t>
         </is>
       </c>
       <c r="K165">
@@ -22391,7 +22511,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>WHODAS (disability) - quantile 2</t>
+          <t>WHODAS (disability) - quantile 3</t>
         </is>
       </c>
       <c r="N165">
@@ -22424,17 +22544,22 @@
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>348.0</t>
         </is>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>182.0</t>
+          <t>242.0</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>737.0</t>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="W165" t="inlineStr">
+        <is>
+          <t>152.0</t>
         </is>
       </c>
       <c r="Y165" t="inlineStr">
@@ -22457,6 +22582,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AC165" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AE165">
         <v>0</v>
       </c>
@@ -22481,7 +22611,7 @@
         </is>
       </c>
       <c r="AJ165">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="166">
@@ -22516,11 +22646,11 @@
         <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>living status (living alone and living with spouse only and living with spouse and children or with son's family and living with daughter's family or distant relative or others)</t>
+          <t>educational level (illertate and primary and middle and high and secondary and above)</t>
         </is>
       </c>
       <c r="K166">
@@ -22531,7 +22661,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>WHODAS (disability) - quantile 2</t>
+          <t>WHODAS (disability) - quantile 3</t>
         </is>
       </c>
       <c r="N166">
@@ -22564,22 +22694,27 @@
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>557.0</t>
         </is>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>773.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="W166" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y166" t="inlineStr">
@@ -22607,6 +22742,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AD166" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AE166">
         <v>0</v>
       </c>
@@ -22631,7 +22771,7 @@
         </is>
       </c>
       <c r="AJ166">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="167">
@@ -22670,7 +22810,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>ownership of house (own house and rented house)</t>
+          <t>type of family (single member/nuclear family and extended family)</t>
         </is>
       </c>
       <c r="K167">
@@ -22681,7 +22821,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>WHODAS (disability) - quantile 2</t>
+          <t>WHODAS (disability) - quantile 3</t>
         </is>
       </c>
       <c r="N167">
@@ -22714,12 +22854,12 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>882.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>837.0</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
@@ -22761,7 +22901,7 @@
         </is>
       </c>
       <c r="AJ167">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="168">
@@ -22800,7 +22940,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>male and female</t>
+          <t>marital status (never married and currently married)</t>
         </is>
       </c>
       <c r="K168">
@@ -22844,12 +22984,12 @@
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t>416.0</t>
+          <t>360.0</t>
         </is>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>515.0</t>
+          <t>571.0</t>
         </is>
       </c>
       <c r="Y168" t="inlineStr">
@@ -22891,7 +23031,7 @@
         </is>
       </c>
       <c r="AJ168">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="169">
@@ -22930,7 +23070,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>age (60-64 and 65-69 and 770-74 and 75 and above)</t>
+          <t>past occuption (home maker and govt/private services and business and labourer/others)</t>
         </is>
       </c>
       <c r="K169">
@@ -22974,22 +23114,22 @@
       </c>
       <c r="T169" t="inlineStr">
         <is>
-          <t>348.0</t>
+          <t>276.0</t>
         </is>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>242.0</t>
+          <t>309.0</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>189.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="W169" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>201.0</t>
         </is>
       </c>
       <c r="Y169" t="inlineStr">
@@ -23041,7 +23181,7 @@
         </is>
       </c>
       <c r="AJ169">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="170">
@@ -23076,11 +23216,11 @@
         <v>1</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>educational level (illertate and primary and middle and high and secondary and above)</t>
+          <t>economical dependency status (dependent and partially dependent and independent)</t>
         </is>
       </c>
       <c r="K170">
@@ -23124,27 +23264,17 @@
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>557.0</t>
+          <t>232.0</t>
         </is>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>448.0</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>88.0</t>
-        </is>
-      </c>
-      <c r="W170" t="inlineStr">
-        <is>
-          <t>85.0</t>
-        </is>
-      </c>
-      <c r="X170" t="inlineStr">
-        <is>
-          <t>49.0</t>
+          <t>251.0</t>
         </is>
       </c>
       <c r="Y170" t="inlineStr">
@@ -23167,16 +23297,6 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AC170" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AD170" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AE170">
         <v>0</v>
       </c>
@@ -23201,7 +23321,7 @@
         </is>
       </c>
       <c r="AJ170">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="171">
@@ -23240,7 +23360,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>type of family (single member/nuclear family and extended family)</t>
+          <t>living children (no children and either son/daughter only and both son/daughter)</t>
         </is>
       </c>
       <c r="K171">
@@ -23284,12 +23404,17 @@
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>837.0</t>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>737.0</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr">
@@ -23307,6 +23432,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AB171" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AE171">
         <v>0</v>
       </c>
@@ -23331,7 +23461,7 @@
         </is>
       </c>
       <c r="AJ171">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="172">
@@ -23370,7 +23500,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>marital status (never married and currently married)</t>
+          <t>living status (living alone and living with spouse only and living with spouse and children or with son's family and living with daughter's family or distant relative or others)</t>
         </is>
       </c>
       <c r="K172">
@@ -23414,12 +23544,22 @@
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>360.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>571.0</t>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>773.0</t>
+        </is>
+      </c>
+      <c r="W172" t="inlineStr">
+        <is>
+          <t>53.0</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
@@ -23437,6 +23577,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AB172" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC172" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AE172">
         <v>0</v>
       </c>
@@ -23461,7 +23611,7 @@
         </is>
       </c>
       <c r="AJ172">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="173">
@@ -23500,7 +23650,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>past occuption (home maker and govt/private services and business and labourer/others)</t>
+          <t>ownership of house (own house and rented house)</t>
         </is>
       </c>
       <c r="K173">
@@ -23544,22 +23694,12 @@
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>276.0</t>
+          <t>882.0</t>
         </is>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>309.0</t>
-        </is>
-      </c>
-      <c r="V173" t="inlineStr">
-        <is>
-          <t>145.0</t>
-        </is>
-      </c>
-      <c r="W173" t="inlineStr">
-        <is>
-          <t>201.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y173" t="inlineStr">
@@ -23577,16 +23717,6 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB173" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AC173" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AE173">
         <v>0</v>
       </c>
@@ -23611,7 +23741,7 @@
         </is>
       </c>
       <c r="AJ173">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="174">
@@ -23650,7 +23780,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>economical dependency status (dependent and partially dependent and independent)</t>
+          <t>male and female</t>
         </is>
       </c>
       <c r="K174">
@@ -23661,7 +23791,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>WHODAS (disability) - quantile 3</t>
+          <t>WHODAS (disability) - quantile 4</t>
         </is>
       </c>
       <c r="N174">
@@ -23694,17 +23824,12 @@
       </c>
       <c r="T174" t="inlineStr">
         <is>
-          <t>232.0</t>
+          <t>416.0</t>
         </is>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>448.0</t>
-        </is>
-      </c>
-      <c r="V174" t="inlineStr">
-        <is>
-          <t>251.0</t>
+          <t>515.0</t>
         </is>
       </c>
       <c r="Y174" t="inlineStr">
@@ -23722,11 +23847,6 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB174" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AE174">
         <v>0</v>
       </c>
@@ -23751,7 +23871,7 @@
         </is>
       </c>
       <c r="AJ174">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="175">
@@ -23790,7 +23910,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>living children (no children and either son/daughter only and both son/daughter)</t>
+          <t>age (60-64 and 65-69 and 770-74 and 75 and above)</t>
         </is>
       </c>
       <c r="K175">
@@ -23801,7 +23921,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>WHODAS (disability) - quantile 3</t>
+          <t>WHODAS (disability) - quantile 4</t>
         </is>
       </c>
       <c r="N175">
@@ -23834,17 +23954,22 @@
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>348.0</t>
         </is>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>182.0</t>
+          <t>242.0</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>737.0</t>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="W175" t="inlineStr">
+        <is>
+          <t>152.0</t>
         </is>
       </c>
       <c r="Y175" t="inlineStr">
@@ -23867,6 +23992,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AC175" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AE175">
         <v>0</v>
       </c>
@@ -23891,7 +24021,7 @@
         </is>
       </c>
       <c r="AJ175">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="176">
@@ -23926,11 +24056,11 @@
         <v>1</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>living status (living alone and living with spouse only and living with spouse and children or with son's family and living with daughter's family or distant relative or others)</t>
+          <t>educational level (illertate and primary and middle and high and secondary and above)</t>
         </is>
       </c>
       <c r="K176">
@@ -23941,7 +24071,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>WHODAS (disability) - quantile 3</t>
+          <t>WHODAS (disability) - quantile 4</t>
         </is>
       </c>
       <c r="N176">
@@ -23974,22 +24104,27 @@
       </c>
       <c r="T176" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>557.0</t>
         </is>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>773.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
@@ -24017,6 +24152,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AD176" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AE176">
         <v>0</v>
       </c>
@@ -24041,7 +24181,7 @@
         </is>
       </c>
       <c r="AJ176">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="177">
@@ -24080,7 +24220,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>ownership of house (own house and rented house)</t>
+          <t>type of family (single member/nuclear family and extended family)</t>
         </is>
       </c>
       <c r="K177">
@@ -24091,7 +24231,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>WHODAS (disability) - quantile 3</t>
+          <t>WHODAS (disability) - quantile 4</t>
         </is>
       </c>
       <c r="N177">
@@ -24124,12 +24264,12 @@
       </c>
       <c r="T177" t="inlineStr">
         <is>
-          <t>882.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>837.0</t>
         </is>
       </c>
       <c r="Y177" t="inlineStr">
@@ -24171,7 +24311,7 @@
         </is>
       </c>
       <c r="AJ177">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="178">
@@ -24210,7 +24350,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>male and female</t>
+          <t>marital status (never married and currently married)</t>
         </is>
       </c>
       <c r="K178">
@@ -24254,12 +24394,12 @@
       </c>
       <c r="T178" t="inlineStr">
         <is>
-          <t>416.0</t>
+          <t>360.0</t>
         </is>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>515.0</t>
+          <t>571.0</t>
         </is>
       </c>
       <c r="Y178" t="inlineStr">
@@ -24301,7 +24441,7 @@
         </is>
       </c>
       <c r="AJ178">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="179">
@@ -24340,7 +24480,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>age (60-64 and 65-69 and 770-74 and 75 and above)</t>
+          <t>past occuption (home maker and govt/private services and business and labourer/others)</t>
         </is>
       </c>
       <c r="K179">
@@ -24384,22 +24524,22 @@
       </c>
       <c r="T179" t="inlineStr">
         <is>
-          <t>348.0</t>
+          <t>276.0</t>
         </is>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>242.0</t>
+          <t>309.0</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>189.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="W179" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>201.0</t>
         </is>
       </c>
       <c r="Y179" t="inlineStr">
@@ -24451,7 +24591,7 @@
         </is>
       </c>
       <c r="AJ179">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="180">
@@ -24486,11 +24626,11 @@
         <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>educational level (illertate and primary and middle and high and secondary and above)</t>
+          <t>economical dependency status (dependent and partially dependent and independent)</t>
         </is>
       </c>
       <c r="K180">
@@ -24534,27 +24674,17 @@
       </c>
       <c r="T180" t="inlineStr">
         <is>
-          <t>557.0</t>
+          <t>232.0</t>
         </is>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>448.0</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>88.0</t>
-        </is>
-      </c>
-      <c r="W180" t="inlineStr">
-        <is>
-          <t>85.0</t>
-        </is>
-      </c>
-      <c r="X180" t="inlineStr">
-        <is>
-          <t>49.0</t>
+          <t>251.0</t>
         </is>
       </c>
       <c r="Y180" t="inlineStr">
@@ -24577,16 +24707,6 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AC180" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AD180" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AE180">
         <v>0</v>
       </c>
@@ -24611,7 +24731,7 @@
         </is>
       </c>
       <c r="AJ180">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="181">
@@ -24650,7 +24770,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>type of family (single member/nuclear family and extended family)</t>
+          <t>living children (no children and either son/daughter only and both son/daughter)</t>
         </is>
       </c>
       <c r="K181">
@@ -24694,12 +24814,17 @@
       </c>
       <c r="T181" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>837.0</t>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>737.0</t>
         </is>
       </c>
       <c r="Y181" t="inlineStr">
@@ -24717,6 +24842,11 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AB181" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AE181">
         <v>0</v>
       </c>
@@ -24741,7 +24871,7 @@
         </is>
       </c>
       <c r="AJ181">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="182">
@@ -24780,7 +24910,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>marital status (never married and currently married)</t>
+          <t>living status (living alone and living with spouse only and living with spouse and children or with son's family and living with daughter's family or distant relative or others)</t>
         </is>
       </c>
       <c r="K182">
@@ -24824,12 +24954,22 @@
       </c>
       <c r="T182" t="inlineStr">
         <is>
-          <t>360.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>571.0</t>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>773.0</t>
+        </is>
+      </c>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>53.0</t>
         </is>
       </c>
       <c r="Y182" t="inlineStr">
@@ -24847,6 +24987,16 @@
           <t>NA</t>
         </is>
       </c>
+      <c r="AB182" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AC182" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="AE182">
         <v>0</v>
       </c>
@@ -24871,7 +25021,7 @@
         </is>
       </c>
       <c r="AJ182">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="183">
@@ -24910,7 +25060,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>past occuption (home maker and govt/private services and business and labourer/others)</t>
+          <t>ownership of house (own house and rented house)</t>
         </is>
       </c>
       <c r="K183">
@@ -24954,22 +25104,12 @@
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>276.0</t>
+          <t>882.0</t>
         </is>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>309.0</t>
-        </is>
-      </c>
-      <c r="V183" t="inlineStr">
-        <is>
-          <t>145.0</t>
-        </is>
-      </c>
-      <c r="W183" t="inlineStr">
-        <is>
-          <t>201.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr">
@@ -24987,16 +25127,6 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="AB183" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AC183" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="AE183">
         <v>0</v>
       </c>
@@ -25021,567 +25151,7 @@
         </is>
       </c>
       <c r="AJ183">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184">
-        <v>199</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1371/journal.pone.0222992</t>
-        </is>
-      </c>
-      <c r="D184">
-        <v>2019</v>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>goswami</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G184">
-        <v>1</v>
-      </c>
-      <c r="H184">
-        <v>1</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>economical dependency status (dependent and partially dependent and independent)</t>
-        </is>
-      </c>
-      <c r="K184">
-        <v>1</v>
-      </c>
-      <c r="L184">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>WHODAS (disability) - quantile 4</t>
-        </is>
-      </c>
-      <c r="N184">
-        <v>0</v>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q184" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="R184" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>931.0</t>
-        </is>
-      </c>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>232.0</t>
-        </is>
-      </c>
-      <c r="U184" t="inlineStr">
-        <is>
-          <t>448.0</t>
-        </is>
-      </c>
-      <c r="V184" t="inlineStr">
-        <is>
-          <t>251.0</t>
-        </is>
-      </c>
-      <c r="Y184" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="Z184" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AA184" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB184" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AE184">
-        <v>0</v>
-      </c>
-      <c r="AF184" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AG184" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AH184" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AI184" t="inlineStr">
-        <is>
-          <t>they measure this scale, then divide it into quartiles</t>
-        </is>
-      </c>
-      <c r="AJ184">
         <v>857</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185">
-        <v>199</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1371/journal.pone.0222992</t>
-        </is>
-      </c>
-      <c r="D185">
-        <v>2019</v>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>goswami</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G185">
-        <v>1</v>
-      </c>
-      <c r="H185">
-        <v>1</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>living children (no children and either son/daughter only and both son/daughter)</t>
-        </is>
-      </c>
-      <c r="K185">
-        <v>1</v>
-      </c>
-      <c r="L185">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr">
-        <is>
-          <t>WHODAS (disability) - quantile 4</t>
-        </is>
-      </c>
-      <c r="N185">
-        <v>0</v>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q185" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="R185" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>931.0</t>
-        </is>
-      </c>
-      <c r="T185" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="U185" t="inlineStr">
-        <is>
-          <t>182.0</t>
-        </is>
-      </c>
-      <c r="V185" t="inlineStr">
-        <is>
-          <t>737.0</t>
-        </is>
-      </c>
-      <c r="Y185" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="Z185" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AA185" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB185" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AE185">
-        <v>0</v>
-      </c>
-      <c r="AF185" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AG185" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AH185" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AI185" t="inlineStr">
-        <is>
-          <t>they measure this scale, then divide it into quartiles</t>
-        </is>
-      </c>
-      <c r="AJ185">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186">
-        <v>199</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1371/journal.pone.0222992</t>
-        </is>
-      </c>
-      <c r="D186">
-        <v>2019</v>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>goswami</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G186">
-        <v>1</v>
-      </c>
-      <c r="H186">
-        <v>1</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>living status (living alone and living with spouse only and living with spouse and children or with son's family and living with daughter's family or distant relative or others)</t>
-        </is>
-      </c>
-      <c r="K186">
-        <v>1</v>
-      </c>
-      <c r="L186">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr">
-        <is>
-          <t>WHODAS (disability) - quantile 4</t>
-        </is>
-      </c>
-      <c r="N186">
-        <v>0</v>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q186" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="R186" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S186" t="inlineStr">
-        <is>
-          <t>931.0</t>
-        </is>
-      </c>
-      <c r="T186" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="U186" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="V186" t="inlineStr">
-        <is>
-          <t>773.0</t>
-        </is>
-      </c>
-      <c r="W186" t="inlineStr">
-        <is>
-          <t>53.0</t>
-        </is>
-      </c>
-      <c r="Y186" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="Z186" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AA186" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB186" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AC186" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AE186">
-        <v>0</v>
-      </c>
-      <c r="AF186" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AG186" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AH186" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AI186" t="inlineStr">
-        <is>
-          <t>they measure this scale, then divide it into quartiles</t>
-        </is>
-      </c>
-      <c r="AJ186">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187">
-        <v>199</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1371/journal.pone.0222992</t>
-        </is>
-      </c>
-      <c r="D187">
-        <v>2019</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>goswami</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
-      <c r="H187">
-        <v>1</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>ownership of house (own house and rented house)</t>
-        </is>
-      </c>
-      <c r="K187">
-        <v>1</v>
-      </c>
-      <c r="L187">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>WHODAS (disability) - quantile 4</t>
-        </is>
-      </c>
-      <c r="N187">
-        <v>0</v>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q187" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>931.0</t>
-        </is>
-      </c>
-      <c r="T187" t="inlineStr">
-        <is>
-          <t>882.0</t>
-        </is>
-      </c>
-      <c r="U187" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="Y187" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="Z187" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AA187" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AE187">
-        <v>0</v>
-      </c>
-      <c r="AF187" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AG187" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AH187" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AI187" t="inlineStr">
-        <is>
-          <t>they measure this scale, then divide it into quartiles</t>
-        </is>
-      </c>
-      <c r="AJ187">
-        <v>860</v>
       </c>
     </row>
   </sheetData>
